--- a/SeleniumJavaMavenProject/src/test/resources/TestData/TestData.xlsx
+++ b/SeleniumJavaMavenProject/src/test/resources/TestData/TestData.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC38CF-8A5F-4F0B-806C-A489431AF762}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA3977-9AEB-4607-B61A-C1D59D5655D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RegisterPatientDetails" sheetId="3" r:id="rId1"/>
+    <sheet name="TestData" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" calcMode="manual"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Name</t>
   </si>
@@ -74,13 +75,79 @@
   </si>
   <si>
     <t>Near SBI bank,Kukatpally,Hyderabad,Telanagana,India,500033</t>
+  </si>
+  <si>
+    <t>registerPatientTest</t>
+  </si>
+  <si>
+    <t>findPatientTest</t>
+  </si>
+  <si>
+    <t>activeVisitsAndAddAttachementsTest</t>
+  </si>
+  <si>
+    <t>FileName</t>
+  </si>
+  <si>
+    <t>UploadFile.JPG</t>
+  </si>
+  <si>
+    <t>UploadFile.pdf</t>
+  </si>
+  <si>
+    <t>UploadFile.txt</t>
+  </si>
+  <si>
+    <t>deletePatientTest</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>FileJPG</t>
+  </si>
+  <si>
+    <t>FilePDF</t>
+  </si>
+  <si>
+    <t>FileTXT</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Discharged</t>
+  </si>
+  <si>
+    <t>Discontinue</t>
+  </si>
+  <si>
+    <t>Shifted</t>
+  </si>
+  <si>
+    <t>H, Ramesh, Babu</t>
+  </si>
+  <si>
+    <t>M, Kishore, Kumar</t>
+  </si>
+  <si>
+    <t>CH, Kumar, Raju</t>
+  </si>
+  <si>
+    <t>H Ramesh Babu</t>
+  </si>
+  <si>
+    <t>M Kishore Kumar</t>
+  </si>
+  <si>
+    <t>CH Kumar Raju</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +162,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -117,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -137,6 +210,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{028A0F5A-7230-4A15-843D-A7AFA3F57D2B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,4 +579,232 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D589C00-3CE8-43C2-8076-9E6CF58703CA}">
+  <dimension ref="A2:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SeleniumJavaMavenProject/src/test/resources/TestData/TestData.xlsx
+++ b/SeleniumJavaMavenProject/src/test/resources/TestData/TestData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5CA3977-9AEB-4607-B61A-C1D59D5655D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB362C5-6F15-418E-86BF-4F2AE7F99153}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,7 +586,7 @@
   <dimension ref="A2:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
